--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Nppa</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +537,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H2">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I2">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J2">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.036780333333333</v>
+        <v>0.2561565</v>
       </c>
       <c r="N2">
-        <v>3.110341</v>
+        <v>0.512313</v>
       </c>
       <c r="O2">
-        <v>0.7068906211239625</v>
+        <v>0.1741229440611523</v>
       </c>
       <c r="P2">
-        <v>0.7367257056395262</v>
+        <v>0.1287532712126501</v>
       </c>
       <c r="Q2">
-        <v>0.1715244199565</v>
+        <v>0.07266788478074999</v>
       </c>
       <c r="R2">
-        <v>1.029146519739</v>
+        <v>0.290671539123</v>
       </c>
       <c r="S2">
-        <v>0.1094515325912503</v>
+        <v>0.05508865832219673</v>
       </c>
       <c r="T2">
-        <v>0.08512611743344679</v>
+        <v>0.03275986932138438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,46 +599,46 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H3">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I3">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J3">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1781875</v>
+        <v>1.036780333333333</v>
       </c>
       <c r="N3">
-        <v>0.356375</v>
+        <v>3.110341</v>
       </c>
       <c r="O3">
-        <v>0.1214906075104235</v>
+        <v>0.7047537110504822</v>
       </c>
       <c r="P3">
-        <v>0.08441216681620638</v>
+        <v>0.781683420754159</v>
       </c>
       <c r="Q3">
-        <v>0.02947925090625</v>
+        <v>0.2941195472518333</v>
       </c>
       <c r="R3">
-        <v>0.117917003625</v>
+        <v>1.764717283511</v>
       </c>
       <c r="S3">
-        <v>0.01881101939974114</v>
+        <v>0.2229685272018209</v>
       </c>
       <c r="T3">
-        <v>0.009753535094815842</v>
+        <v>0.1988908434979086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +661,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H4">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I4">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J4">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2517093333333333</v>
+        <v>0.1781875</v>
       </c>
       <c r="N4">
-        <v>0.755128</v>
+        <v>0.356375</v>
       </c>
       <c r="O4">
-        <v>0.1716187713656141</v>
+        <v>0.1211233448883654</v>
       </c>
       <c r="P4">
-        <v>0.1788621275442674</v>
+        <v>0.08956330803319101</v>
       </c>
       <c r="Q4">
-        <v>0.041642666252</v>
+        <v>0.05054921003124999</v>
       </c>
       <c r="R4">
-        <v>0.249855997512</v>
+        <v>0.202196840125</v>
       </c>
       <c r="S4">
-        <v>0.02657262239174601</v>
+        <v>0.03832075432318302</v>
       </c>
       <c r="T4">
-        <v>0.02066690269821984</v>
+        <v>0.02278840948679491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H5">
         <v>0.230995</v>
       </c>
       <c r="I5">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J5">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.036780333333333</v>
+        <v>0.2561565</v>
       </c>
       <c r="N5">
-        <v>3.110341</v>
+        <v>0.512313</v>
       </c>
       <c r="O5">
-        <v>0.7068906211239625</v>
+        <v>0.1741229440611523</v>
       </c>
       <c r="P5">
-        <v>0.7367257056395262</v>
+        <v>0.1287532712126501</v>
       </c>
       <c r="Q5">
-        <v>0.07983035769944444</v>
+        <v>0.0197236235725</v>
       </c>
       <c r="R5">
-        <v>0.718473219295</v>
+        <v>0.118341741435</v>
       </c>
       <c r="S5">
-        <v>0.05094058909937041</v>
+        <v>0.01495224421543791</v>
       </c>
       <c r="T5">
-        <v>0.0594286959781039</v>
+        <v>0.01333759746954495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H6">
         <v>0.230995</v>
       </c>
       <c r="I6">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J6">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1781875</v>
+        <v>1.036780333333333</v>
       </c>
       <c r="N6">
-        <v>0.356375</v>
+        <v>3.110341</v>
       </c>
       <c r="O6">
-        <v>0.1214906075104235</v>
+        <v>0.7047537110504822</v>
       </c>
       <c r="P6">
-        <v>0.08441216681620638</v>
+        <v>0.781683420754159</v>
       </c>
       <c r="Q6">
-        <v>0.01372014052083333</v>
+        <v>0.07983035769944445</v>
       </c>
       <c r="R6">
-        <v>0.08232084312499999</v>
+        <v>0.7184732192950001</v>
       </c>
       <c r="S6">
-        <v>0.008754965664675414</v>
+        <v>0.06051844377075391</v>
       </c>
       <c r="T6">
-        <v>0.006809189580562639</v>
+        <v>0.08097486546510026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,46 +847,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H7">
         <v>0.230995</v>
       </c>
       <c r="I7">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J7">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2517093333333333</v>
+        <v>0.1781875</v>
       </c>
       <c r="N7">
-        <v>0.755128</v>
+        <v>0.356375</v>
       </c>
       <c r="O7">
-        <v>0.1716187713656141</v>
+        <v>0.1211233448883654</v>
       </c>
       <c r="P7">
-        <v>0.1788621275442674</v>
+        <v>0.08956330803319101</v>
       </c>
       <c r="Q7">
-        <v>0.01938119915111111</v>
+        <v>0.01372014052083333</v>
       </c>
       <c r="R7">
-        <v>0.17443079236</v>
+        <v>0.082320843125</v>
       </c>
       <c r="S7">
-        <v>0.01236734659171756</v>
+        <v>0.01040107518699835</v>
       </c>
       <c r="T7">
-        <v>0.01442808757514165</v>
+        <v>0.009277895150443345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +915,40 @@
         <v>0.35285</v>
       </c>
       <c r="I8">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J8">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.036780333333333</v>
+        <v>0.2561565</v>
       </c>
       <c r="N8">
-        <v>3.110341</v>
+        <v>0.512313</v>
       </c>
       <c r="O8">
-        <v>0.7068906211239625</v>
+        <v>0.1741229440611523</v>
       </c>
       <c r="P8">
-        <v>0.7367257056395262</v>
+        <v>0.1287532712126501</v>
       </c>
       <c r="Q8">
-        <v>0.1829139703083333</v>
+        <v>0.0451924105125</v>
       </c>
       <c r="R8">
-        <v>1.09748382185</v>
+        <v>0.18076964205</v>
       </c>
       <c r="S8">
-        <v>0.1167193242086161</v>
+        <v>0.03425982838211174</v>
       </c>
       <c r="T8">
-        <v>0.09077865484479734</v>
+        <v>0.02037347677278268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,40 +977,40 @@
         <v>0.35285</v>
       </c>
       <c r="I9">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J9">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1781875</v>
+        <v>1.036780333333333</v>
       </c>
       <c r="N9">
-        <v>0.356375</v>
+        <v>3.110341</v>
       </c>
       <c r="O9">
-        <v>0.1214906075104235</v>
+        <v>0.7047537110504822</v>
       </c>
       <c r="P9">
-        <v>0.08441216681620638</v>
+        <v>0.781683420754159</v>
       </c>
       <c r="Q9">
-        <v>0.0314367296875</v>
+        <v>0.1829139703083333</v>
       </c>
       <c r="R9">
-        <v>0.12574691875</v>
+        <v>1.09748382185</v>
       </c>
       <c r="S9">
-        <v>0.02006010715457512</v>
+        <v>0.1386649032523032</v>
       </c>
       <c r="T9">
-        <v>0.01040118852573228</v>
+        <v>0.1236909079389624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,40 +1039,40 @@
         <v>0.35285</v>
       </c>
       <c r="I10">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J10">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.2517093333333333</v>
+        <v>0.1781875</v>
       </c>
       <c r="N10">
-        <v>0.755128</v>
+        <v>0.356375</v>
       </c>
       <c r="O10">
-        <v>0.1716187713656141</v>
+        <v>0.1211233448883654</v>
       </c>
       <c r="P10">
-        <v>0.1788621275442674</v>
+        <v>0.08956330803319101</v>
       </c>
       <c r="Q10">
-        <v>0.04440781913333333</v>
+        <v>0.0314367296875</v>
       </c>
       <c r="R10">
-        <v>0.2664469148</v>
+        <v>0.12574691875</v>
       </c>
       <c r="S10">
-        <v>0.02833709546670409</v>
+        <v>0.02383181051364121</v>
       </c>
       <c r="T10">
-        <v>0.0220392246623898</v>
+        <v>0.01417219118956659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1080,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H11">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I11">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J11">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>1.036780333333333</v>
+        <v>0.2561565</v>
       </c>
       <c r="N11">
-        <v>3.110341</v>
+        <v>0.512313</v>
       </c>
       <c r="O11">
-        <v>0.7068906211239625</v>
+        <v>0.1741229440611523</v>
       </c>
       <c r="P11">
-        <v>0.7367257056395262</v>
+        <v>0.1287532712126501</v>
       </c>
       <c r="Q11">
-        <v>0.5390756622838888</v>
+        <v>0.0921030334415</v>
       </c>
       <c r="R11">
-        <v>4.851680960554999</v>
+        <v>0.552618200649</v>
       </c>
       <c r="S11">
-        <v>0.3439898379168312</v>
+        <v>0.06982221314140591</v>
       </c>
       <c r="T11">
-        <v>0.401308030757918</v>
+        <v>0.0622823276489381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1142,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.3595576666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.078673</v>
+      </c>
+      <c r="I12">
+        <v>0.4009937548315529</v>
+      </c>
+      <c r="J12">
+        <v>0.4837339437075119</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5199516666666666</v>
-      </c>
-      <c r="H12">
-        <v>1.559855</v>
-      </c>
-      <c r="I12">
-        <v>0.486623853305458</v>
-      </c>
-      <c r="J12">
-        <v>0.5447183771191427</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1781875</v>
+        <v>1.036780333333333</v>
       </c>
       <c r="N12">
-        <v>0.356375</v>
+        <v>3.110341</v>
       </c>
       <c r="O12">
-        <v>0.1214906075104235</v>
+        <v>0.7047537110504822</v>
       </c>
       <c r="P12">
-        <v>0.08441216681620638</v>
+        <v>0.781683420754159</v>
       </c>
       <c r="Q12">
-        <v>0.09264888760416665</v>
+        <v>0.3727823174992222</v>
       </c>
       <c r="R12">
-        <v>0.5558933256249999</v>
+        <v>3.355040857493</v>
       </c>
       <c r="S12">
-        <v>0.0591202275671433</v>
+        <v>0.2826018368256041</v>
       </c>
       <c r="T12">
-        <v>0.04598085851723429</v>
+        <v>0.3781268038521877</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1204,61 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H13">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I13">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J13">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.2517093333333333</v>
+        <v>0.1781875</v>
       </c>
       <c r="N13">
-        <v>0.755128</v>
+        <v>0.356375</v>
       </c>
       <c r="O13">
-        <v>0.1716187713656141</v>
+        <v>0.1211233448883654</v>
       </c>
       <c r="P13">
-        <v>0.1788621275442674</v>
+        <v>0.08956330803319101</v>
       </c>
       <c r="Q13">
-        <v>0.1308766873822222</v>
+        <v>0.06406868172916666</v>
       </c>
       <c r="R13">
-        <v>1.17789018644</v>
+        <v>0.384412090375</v>
       </c>
       <c r="S13">
-        <v>0.08351378782148353</v>
+        <v>0.04856970486454283</v>
       </c>
       <c r="T13">
-        <v>0.09742948784399046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.38902</v>
-      </c>
-      <c r="I14">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J14">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.036780333333333</v>
-      </c>
-      <c r="N14">
-        <v>3.110341</v>
-      </c>
-      <c r="O14">
-        <v>0.7068906211239625</v>
-      </c>
-      <c r="P14">
-        <v>0.7367257056395262</v>
-      </c>
-      <c r="Q14">
-        <v>0.1344427617577778</v>
-      </c>
-      <c r="R14">
-        <v>1.20998485582</v>
-      </c>
-      <c r="S14">
-        <v>0.08578933730789445</v>
-      </c>
-      <c r="T14">
-        <v>0.1000842066252602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.38902</v>
-      </c>
-      <c r="I15">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J15">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.1781875</v>
-      </c>
-      <c r="N15">
-        <v>0.356375</v>
-      </c>
-      <c r="O15">
-        <v>0.1214906075104235</v>
-      </c>
-      <c r="P15">
-        <v>0.08441216681620638</v>
-      </c>
-      <c r="Q15">
-        <v>0.02310616708333333</v>
-      </c>
-      <c r="R15">
-        <v>0.1386370025</v>
-      </c>
-      <c r="S15">
-        <v>0.01474428772428853</v>
-      </c>
-      <c r="T15">
-        <v>0.01146739509786133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.38902</v>
-      </c>
-      <c r="I16">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J16">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.2517093333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.755128</v>
-      </c>
-      <c r="O16">
-        <v>0.1716187713656141</v>
-      </c>
-      <c r="P16">
-        <v>0.1788621275442674</v>
-      </c>
-      <c r="Q16">
-        <v>0.03263998828444445</v>
-      </c>
-      <c r="R16">
-        <v>0.29375989456</v>
-      </c>
-      <c r="S16">
-        <v>0.02082791909396292</v>
-      </c>
-      <c r="T16">
-        <v>0.02429842476452565</v>
+        <v>0.04332481220638617</v>
       </c>
     </row>
   </sheetData>
